--- a/Docs/Очистка - описание/Входа-выхода.xlsx
+++ b/Docs/Очистка - описание/Входа-выхода.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA0D98-A1C3-40C0-94DB-98A5B055E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBF730-1ED9-412E-84B6-FCB0919B7ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,12 +319,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -354,12 +366,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +660,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,308 +843,308 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Docs/Очистка - описание/Входа-выхода.xlsx
+++ b/Docs/Очистка - описание/Входа-выхода.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBF730-1ED9-412E-84B6-FCB0919B7ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F3992-1DB7-4B42-9C92-7CC3B5EC5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Входа-выхода" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
-  <si>
-    <t>пин</t>
-  </si>
-  <si>
-    <t>назначение</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>PA0</t>
   </si>
@@ -289,6 +283,36 @@
   </si>
   <si>
     <t>Бак отстойника 3, мешалка</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Пин</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>1 = уровень воды достиг датчика, 0 = уровень воды ниже датчика</t>
+  </si>
+  <si>
+    <t>1 = открыть клапан, 0 = закрыть клапан</t>
+  </si>
+  <si>
+    <t>1 = запустить насос,  0 = остановить насос</t>
+  </si>
+  <si>
+    <t>1 = разрешить работу насоса, 0 = запретить работу насоса</t>
+  </si>
+  <si>
+    <t>1 = запустить мешалку,  0 = остановить мешалку</t>
+  </si>
+  <si>
+    <t>2 = запустить мешалку,  0 = остановить мешалку</t>
+  </si>
+  <si>
+    <t>3 = запустить мешалку,  0 = остановить мешалку</t>
   </si>
 </sst>
 </file>
@@ -304,22 +328,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +362,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -362,19 +392,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,486 +968,571 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F4" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E6" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F6" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E7" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F7" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E8" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="F8" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F9" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="F11" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F15" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F16" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="F17" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E18" s="24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="F18" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="E24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E25" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="E27" s="24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="F27" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>87</v>
+      <c r="F28" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
